--- a/Documents/Other/Rule hoạt động.xlsx
+++ b/Documents/Other/Rule hoạt động.xlsx
@@ -192,13 +192,13 @@
     <t>_Thời gian deadline để commit file này hằng ngày là 10h đêm (ngay cả sửa bug nào cũng ghi luôn nhé, study cái gì, bất cứ cái gì)</t>
   </si>
   <si>
-    <t>7. File này sẽ được start vào thứ 7 ngày 22/05/2015, nếu mọi người đã APPROVE</t>
-  </si>
-  <si>
     <t>Kí tên vào đây nếu APPROVE sẽ hoạt động theo file này =&gt;</t>
   </si>
   <si>
     <t>Người tạo file: Lê Minh Hoàng</t>
+  </si>
+  <si>
+    <t>7. File này sẽ được start vào thứ 7 ngày 23/05/2015, nếu mọi người đã APPROVE</t>
   </si>
 </sst>
 </file>
@@ -275,11 +275,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,23 +577,23 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="27">
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1">
-      <c r="A3" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -843,15 +843,15 @@
     </row>
     <row r="50" spans="1:8" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="B52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Other/Rule hoạt động.xlsx
+++ b/Documents/Other/Rule hoạt động.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone Project Home\DATN_OutSourcingHRM\trunk\Documents\Other\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">CAPSTONE PROJECT </t>
   </si>
@@ -199,31 +204,37 @@
   </si>
   <si>
     <t>7. File này sẽ được start vào thứ 7 ngày 23/05/2015, nếu mọi người đã APPROVE</t>
+  </si>
+  <si>
+    <t>PhuocNH</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -232,7 +243,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -240,7 +251,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -286,6 +297,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -332,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,9 +383,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,6 +418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,16 +594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="27">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
@@ -592,57 +613,57 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1">
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -653,7 +674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>13</v>
       </c>
@@ -661,7 +682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>14</v>
       </c>
@@ -669,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>15</v>
       </c>
@@ -677,7 +698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>16</v>
       </c>
@@ -685,7 +706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>17</v>
       </c>
@@ -693,7 +714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -704,7 +725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>26</v>
       </c>
@@ -712,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>27</v>
       </c>
@@ -720,7 +741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -731,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>32</v>
       </c>
@@ -739,7 +760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>33</v>
       </c>
@@ -747,7 +768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>34</v>
       </c>
@@ -755,12 +776,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>35</v>
       </c>
@@ -768,47 +789,47 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1">
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1">
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -816,42 +837,50 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1">
+    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1">
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -863,24 +892,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Rule hoạt động.xlsx
+++ b/Documents/Other/Rule hoạt động.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone Project Home\DATN_OutSourcingHRM\trunk\Documents\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Works\FU\Summer2015\DATN\DATN_OutSourcingHRM\trunk\Documents\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445"/>
+    <workbookView xWindow="1065" yWindow="60" windowWidth="19095" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">CAPSTONE PROJECT </t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>KienNT</t>
   </si>
 </sst>
 </file>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,6 +883,14 @@
         <v>61</v>
       </c>
       <c r="I53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" t="s">
         <v>62</v>
       </c>
     </row>
